--- a/biology/Zoologie/Gigantometrus_swammerdami/Gigantometrus_swammerdami.xlsx
+++ b/biology/Zoologie/Gigantometrus_swammerdami/Gigantometrus_swammerdami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantometrus swammerdami est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Elle se rencontre au Tamil Nadu, au Pondichéry, au Kerala, au Karnataka, en Andhra Pradesh, au Telangana, au Maharashtra, au Madhya Pradesh, au Chhattisgarh, en Odisha, au Jharkhand et au Bengale-Occidental.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre au Tamil Nadu, au Pondichéry, au Kerala, au Karnataka, en Andhra Pradesh, au Telangana, au Maharashtra, au Madhya Pradesh, au Chhattisgarh, en Odisha, au Jharkhand et au Bengale-Occidental.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gigantometrus swammerdami mesure 130 à 176 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigantometrus swammerdami mesure 130 à 176 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Heterometrus swammerdami par Simon en 1872. Elle est placée dans le genre Gigantometrus par Prendini et Loria en 2020[1] qui dans le même temps place Palamnaeus swammerdami flavimanus[3] en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Heterometrus swammerdami par Simon en 1872. Elle est placée dans le genre Gigantometrus par Prendini et Loria en 2020 qui dans le même temps place Palamnaeus swammerdami flavimanus en synonymie.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jan Swammerdam[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jan Swammerdam.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1872 : « Études sur les Scorpions. Révision des Heterometrus du groupe de l'H. afer, L. » Revue et Magasin de Zoologie Pure et Appliquée, vol. 23, no 2, p. 51–59 (texte intégral) &amp; vol. 23, no 3, p. 97–101 (texte intégral).</t>
         </is>
